--- a/simulations/raw_inclusion_exclusion/Wolters_2018 IEC/output/tables/metrics/metrics_sim.xlsx
+++ b/simulations/raw_inclusion_exclusion/Wolters_2018 IEC/output/tables/metrics/metrics_sim.xlsx
@@ -713,13 +713,13 @@
         <v>36</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>0.8947368421052632</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -728,16 +728,16 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>0.4105140186915888</v>
+        <v>0.8144859813084112</v>
       </c>
       <c r="I3">
-        <v>0.448955644214973</v>
+        <v>0.03486950184661372</v>
       </c>
       <c r="J3">
-        <v>-0.1052631578947368</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="K3">
-        <v>1923</v>
+        <v>158.578947368421</v>
       </c>
       <c r="L3">
         <v>1</v>
@@ -755,34 +755,34 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>1777</v>
+        <v>3</v>
       </c>
       <c r="R3">
-        <v>1791</v>
+        <v>10</v>
       </c>
       <c r="S3">
-        <v>1802</v>
+        <v>41</v>
       </c>
       <c r="T3">
-        <v>1959</v>
+        <v>173</v>
       </c>
       <c r="U3">
-        <v>2111</v>
+        <v>316</v>
       </c>
       <c r="V3">
-        <v>2484</v>
+        <v>4258</v>
       </c>
       <c r="W3">
-        <v>2470</v>
+        <v>4251</v>
       </c>
       <c r="X3">
-        <v>2459</v>
+        <v>4220</v>
       </c>
       <c r="Y3">
-        <v>2302</v>
+        <v>4088</v>
       </c>
       <c r="Z3">
-        <v>2150</v>
+        <v>3945</v>
       </c>
       <c r="AA3">
         <v>18</v>
@@ -800,19 +800,19 @@
         <v>2</v>
       </c>
       <c r="AF3">
-        <v>0.582962</v>
+        <v>0.999296</v>
       </c>
       <c r="AG3">
-        <v>0.579676</v>
+        <v>0.997653</v>
       </c>
       <c r="AH3">
-        <v>0.577095</v>
+        <v>0.990378</v>
       </c>
       <c r="AI3">
-        <v>0.540249</v>
+        <v>0.959399</v>
       </c>
       <c r="AJ3">
-        <v>0.504576</v>
+        <v>0.925839</v>
       </c>
     </row>
   </sheetData>
